--- a/fw-ig/minimal-r401/pull/14_FROM_SEssaid_fhirware_sessaid-pr-10_TO_dev/StructureDefinition-r4-xml.patient.xlsx
+++ b/fw-ig/minimal-r401/pull/14_FROM_SEssaid_fhirware_sessaid-pr-10_TO_dev/StructureDefinition-r4-xml.patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T05:23:55+00:00</t>
+    <t>2022-08-26T05:42:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fw-ig/minimal-r401/pull/14_FROM_SEssaid_fhirware_sessaid-pr-10_TO_dev/StructureDefinition-r4-xml.patient.xlsx
+++ b/fw-ig/minimal-r401/pull/14_FROM_SEssaid_fhirware_sessaid-pr-10_TO_dev/StructureDefinition-r4-xml.patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T05:42:32+00:00</t>
+    <t>2022-08-26T06:07:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
